--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="0" yWindow="2445" windowWidth="16935" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>first</t>
   </si>
@@ -24,18 +25,12 @@
     <t>last</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>aish</t>
   </si>
   <si>
     <t>rana</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -46,6 +41,15 @@
   </si>
   <si>
     <t>facebook</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
   </si>
 </sst>
 </file>
@@ -96,10 +100,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,24 +407,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -428,42 +433,54 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>12345678</v>
       </c>
-      <c r="F2">
-        <v>123456</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="test@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="test@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -477,4 +494,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>